--- a/data/trans_orig/P1428-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14105</v>
+        <v>13257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33734</v>
+        <v>32049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04633971557013774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02977241090747723</v>
+        <v>0.02798100456537974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07120230445633947</v>
+        <v>0.06764691612248781</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>29305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20041</v>
+        <v>20471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40755</v>
+        <v>41107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0955557376212621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06534793172025244</v>
+        <v>0.06675123629654021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1328917561945888</v>
+        <v>0.1340381884849255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -786,19 +786,19 @@
         <v>51260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37892</v>
+        <v>38978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66431</v>
+        <v>67330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06567914362546771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04855111913773084</v>
+        <v>0.0499429907238939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0851185492569746</v>
+        <v>0.08626962765814079</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>451821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440042</v>
+        <v>441727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459671</v>
+        <v>460519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9536602844298623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9287976955436605</v>
+        <v>0.9323530838775123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9702275890925228</v>
+        <v>0.9720189954346202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -836,19 +836,19 @@
         <v>277375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265925</v>
+        <v>265573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286639</v>
+        <v>286209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9044442623787379</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8671082438054112</v>
+        <v>0.8659618115150748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.934652068279747</v>
+        <v>0.9332487637034599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>704</v>
@@ -857,19 +857,19 @@
         <v>729197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714026</v>
+        <v>713127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742565</v>
+        <v>741479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9343208563745323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9148814507430256</v>
+        <v>0.9137303723418591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9514488808622692</v>
+        <v>0.9500570092761059</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>14761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8408</v>
+        <v>8540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24171</v>
+        <v>24313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04022765835140896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02291432031578352</v>
+        <v>0.02327259089952949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06587364444891498</v>
+        <v>0.06625992311632224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>22602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14445</v>
+        <v>14089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33773</v>
+        <v>34111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06078088250465133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03884557693649193</v>
+        <v>0.03788798160035796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09082008703852104</v>
+        <v>0.09172869693130822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1003,19 +1003,19 @@
         <v>37363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26554</v>
+        <v>27016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50546</v>
+        <v>51488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05057285627417449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03594148518096621</v>
+        <v>0.03656792321572934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06841628879435835</v>
+        <v>0.06969142009482852</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>352173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342763</v>
+        <v>342621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358526</v>
+        <v>358394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.959772341648591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341263555510848</v>
+        <v>0.9337400768836774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9770856796842163</v>
+        <v>0.9767274091004705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -1053,19 +1053,19 @@
         <v>349263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>338092</v>
+        <v>337754</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357420</v>
+        <v>357776</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9392191174953487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9091799129614788</v>
+        <v>0.9082713030686917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.961154423063508</v>
+        <v>0.9621120183996421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1074,19 +1074,19 @@
         <v>701436</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688253</v>
+        <v>687311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712245</v>
+        <v>711783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9494271437258255</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9315837112056417</v>
+        <v>0.9303085799051717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9640585148190338</v>
+        <v>0.9634320767842707</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27624</v>
+        <v>27131</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49845</v>
+        <v>50050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06819665926656041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0509310597691526</v>
+        <v>0.05002119196106805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09189815866111528</v>
+        <v>0.09227768162759466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1199,19 +1199,19 @@
         <v>32768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22740</v>
+        <v>22757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45450</v>
+        <v>44895</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1953039938891327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1355347838375695</v>
+        <v>0.1356347577912259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2708853164326691</v>
+        <v>0.2675811787383932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1220,19 +1220,19 @@
         <v>69758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54333</v>
+        <v>55092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86664</v>
+        <v>85306</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09822648450032823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07650711291469788</v>
+        <v>0.07757557260235459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1220322888619398</v>
+        <v>0.120120086818849</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>505400</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>492544</v>
+        <v>492339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514765</v>
+        <v>515258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9318033407334396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9081018413388847</v>
+        <v>0.9077223183724066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9490689402308472</v>
+        <v>0.949978808038932</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1270,19 +1270,19 @@
         <v>135014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122332</v>
+        <v>122887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145042</v>
+        <v>145025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8046960061108673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7291146835673309</v>
+        <v>0.732418821261607</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8644652161624305</v>
+        <v>0.8643652422087743</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -1291,19 +1291,19 @@
         <v>640413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623507</v>
+        <v>624865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655838</v>
+        <v>655079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9017735154996718</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8779677111380603</v>
+        <v>0.8798799131811509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9234928870853022</v>
+        <v>0.9224244273976454</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>130940</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111157</v>
+        <v>113927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152370</v>
+        <v>155341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1057391933806116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08976366786001561</v>
+        <v>0.0920004326164708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1230446397127561</v>
+        <v>0.1254437121250063</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1416,19 +1416,19 @@
         <v>98990</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79961</v>
+        <v>82535</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116916</v>
+        <v>117517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.13858677636392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1119451051462123</v>
+        <v>0.1155489321011796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1636818977384064</v>
+        <v>0.1645236773998651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -1437,19 +1437,19 @@
         <v>229931</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202385</v>
+        <v>202997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258811</v>
+        <v>259684</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1177551257657626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1036481146613378</v>
+        <v>0.1039613121405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1325456128264408</v>
+        <v>0.1329925635074969</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1107394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1085964</v>
+        <v>1082993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1127177</v>
+        <v>1124407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8942608066193883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8769553602872439</v>
+        <v>0.8745562878749936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9102363321399844</v>
+        <v>0.9079995673835293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -1487,19 +1487,19 @@
         <v>615295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597369</v>
+        <v>596768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>634324</v>
+        <v>631750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8614132236360801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8363181022615936</v>
+        <v>0.8354763226001349</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8880548948537876</v>
+        <v>0.8844510678988204</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1679</v>
@@ -1508,19 +1508,19 @@
         <v>1722689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1693809</v>
+        <v>1692936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1750235</v>
+        <v>1749623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8822448742342374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8674543871735593</v>
+        <v>0.8670074364925031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8963518853386622</v>
+        <v>0.8960386878594999</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>29228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20803</v>
+        <v>19425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40021</v>
+        <v>40740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08337660031750303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05934399554419833</v>
+        <v>0.05541223703279813</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1141652247859744</v>
+        <v>0.1162158330668842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -1633,19 +1633,19 @@
         <v>101515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84749</v>
+        <v>83467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121530</v>
+        <v>120157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1784874165820356</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1490091665585528</v>
+        <v>0.1467543514347267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2136789644384545</v>
+        <v>0.2112640481083166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -1654,19 +1654,19 @@
         <v>130743</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110878</v>
+        <v>110920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153392</v>
+        <v>151490</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1422192343145936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1206101755925879</v>
+        <v>0.120656376351921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1668559976407198</v>
+        <v>0.1647866650496727</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>321327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>310534</v>
+        <v>309815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>329752</v>
+        <v>331130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.916623399682497</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8858347752140256</v>
+        <v>0.8837841669331157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9406560044558016</v>
+        <v>0.9445877629672019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>442</v>
@@ -1704,19 +1704,19 @@
         <v>467237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>447222</v>
+        <v>448595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>484003</v>
+        <v>485285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8215125834179644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7863210355615454</v>
+        <v>0.7887359518916838</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8509908334414472</v>
+        <v>0.8532456485652733</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -1725,19 +1725,19 @@
         <v>788564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>765915</v>
+        <v>767817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>808429</v>
+        <v>808387</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8577807656854064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8331440023592801</v>
+        <v>0.8352133349503273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8793898244074119</v>
+        <v>0.8793436236480791</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7532</v>
+        <v>8230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009001937817239113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002614186815718453</v>
+        <v>0.002622253954184799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02525744196864031</v>
+        <v>0.0275986375929126</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>299</v>
@@ -1850,19 +1850,19 @@
         <v>311372</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>280608</v>
+        <v>282071</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>344585</v>
+        <v>342497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2493449840077815</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2247096436715403</v>
+        <v>0.2258808724579189</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2759415935770237</v>
+        <v>0.2742697444151586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -1871,19 +1871,19 @@
         <v>314056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284280</v>
+        <v>281275</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>349241</v>
+        <v>345797</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2030151430109425</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1837671580375083</v>
+        <v>0.1818241577603638</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2257593041878108</v>
+        <v>0.2235334373938452</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>295517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290669</v>
+        <v>289971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297421</v>
+        <v>297419</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9909980621827609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.97474255803136</v>
+        <v>0.9724013624070875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9973858131842815</v>
+        <v>0.9973777460458152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>939</v>
@@ -1921,19 +1921,19 @@
         <v>937388</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>904175</v>
+        <v>906263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>968152</v>
+        <v>966689</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7506550159922184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7240584064229764</v>
+        <v>0.7257302555848415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7752903563284602</v>
+        <v>0.774119127542081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1242</v>
@@ -1942,19 +1942,19 @@
         <v>1232904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1197719</v>
+        <v>1201163</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1262680</v>
+        <v>1265685</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7969848569890575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7742406958121896</v>
+        <v>0.7764665626061548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.816232841962492</v>
+        <v>0.8181758422396362</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>236558</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>210118</v>
+        <v>210597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>264736</v>
+        <v>267294</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07233759198656939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06425264933053859</v>
+        <v>0.06439887879057887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08095438417219515</v>
+        <v>0.08173646234052206</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>577</v>
@@ -2067,19 +2067,19 @@
         <v>596553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>554068</v>
+        <v>554529</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>639813</v>
+        <v>640297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1765930858467616</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1640164783110802</v>
+        <v>0.1641530401247782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1893988361851832</v>
+        <v>0.1895422314507073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>822</v>
@@ -2088,19 +2088,19 @@
         <v>833111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>781594</v>
+        <v>776513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>891652</v>
+        <v>879559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1253116222541796</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1175627160654431</v>
+        <v>0.1167985418340375</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1341169743873168</v>
+        <v>0.1322980310584732</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3033632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3005454</v>
+        <v>3002896</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3060072</v>
+        <v>3059593</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9276624080134306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.919045615827805</v>
+        <v>0.918263537659478</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9357473506694616</v>
+        <v>0.9356011212094213</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2719</v>
@@ -2138,19 +2138,19 @@
         <v>2781571</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2738311</v>
+        <v>2737827</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2824056</v>
+        <v>2823595</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8234069141532384</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8106011638148166</v>
+        <v>0.8104577685492926</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8359835216889198</v>
+        <v>0.8358469598752217</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5681</v>
@@ -2159,19 +2159,19 @@
         <v>5815203</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5756662</v>
+        <v>5768755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5866720</v>
+        <v>5871801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8746883777458204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8658830256126835</v>
+        <v>0.8677019689415268</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8824372839345571</v>
+        <v>0.8832014581659621</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>16373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9250</v>
+        <v>9150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27835</v>
+        <v>26853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03744940841698615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02115751505502382</v>
+        <v>0.02092856056306927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06366552533640997</v>
+        <v>0.06141860154173654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2526,19 +2526,19 @@
         <v>15884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8842</v>
+        <v>8939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25512</v>
+        <v>25655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05051232121668734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02811735136439367</v>
+        <v>0.02842654399715245</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08113068007120093</v>
+        <v>0.08158699764815226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2547,19 +2547,19 @@
         <v>32257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21782</v>
+        <v>20998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46430</v>
+        <v>45271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04291419435029488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.028978376368247</v>
+        <v>0.02793490144365511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06176912007274594</v>
+        <v>0.06022731428553885</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>420838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409376</v>
+        <v>410358</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427961</v>
+        <v>428061</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9625505915830138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9363344746635899</v>
+        <v>0.9385813984582632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9788424849449762</v>
+        <v>0.9790714394369306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -2597,19 +2597,19 @@
         <v>298570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288942</v>
+        <v>288799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305612</v>
+        <v>305515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9494876787833126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9188693199287993</v>
+        <v>0.9184130023518473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9718826486356064</v>
+        <v>0.9715734560028474</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>659</v>
@@ -2618,19 +2618,19 @@
         <v>719408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705235</v>
+        <v>706394</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>729883</v>
+        <v>730667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9570858056497051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9382308799272537</v>
+        <v>0.9397726857144612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9710216236317527</v>
+        <v>0.9720650985563452</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>16649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9600</v>
+        <v>9426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27389</v>
+        <v>27396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03975553656803538</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02292295635841613</v>
+        <v>0.02250650839320565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06539810924094561</v>
+        <v>0.06541628345122721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2743,19 +2743,19 @@
         <v>15288</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9053</v>
+        <v>8949</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24520</v>
+        <v>24697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04523017718092844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02678268477564056</v>
+        <v>0.02647535668838761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07254181925470674</v>
+        <v>0.07306485658197565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2764,19 +2764,19 @@
         <v>31938</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22309</v>
+        <v>22444</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45202</v>
+        <v>44764</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04220066023217349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02947792400522122</v>
+        <v>0.02965647476780493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05972761757793106</v>
+        <v>0.05914861294783841</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>402148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391408</v>
+        <v>391401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409197</v>
+        <v>409371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9602444634319646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9346018907590544</v>
+        <v>0.9345837165487728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9770770436415839</v>
+        <v>0.9774934916067943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2814,19 +2814,19 @@
         <v>322723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313491</v>
+        <v>313314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328958</v>
+        <v>329062</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9547698228190715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9274581807452933</v>
+        <v>0.9269351434180241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732173152243595</v>
+        <v>0.9735246433116123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -2835,19 +2835,19 @@
         <v>724870</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>711606</v>
+        <v>712044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734499</v>
+        <v>734364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9577993397678265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9402723824220691</v>
+        <v>0.9408513870521615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9705220759947788</v>
+        <v>0.970343525232195</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>45675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33044</v>
+        <v>34064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60726</v>
+        <v>61783</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07256662890722282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05249892991161598</v>
+        <v>0.05411941843350225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09647947053922633</v>
+        <v>0.09815907866987984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2960,19 +2960,19 @@
         <v>38396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27465</v>
+        <v>25832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50975</v>
+        <v>50636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1476044700993729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1055839413294518</v>
+        <v>0.09930568349800883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1959588447826526</v>
+        <v>0.1946572061608597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -2981,19 +2981,19 @@
         <v>84071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68910</v>
+        <v>67291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106074</v>
+        <v>104510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09450994523325222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0774669139959242</v>
+        <v>0.0756468700283305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1192453147999387</v>
+        <v>0.1174874383712928</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>583740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568689</v>
+        <v>567632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>596371</v>
+        <v>595351</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9274333710927771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9035205294607738</v>
+        <v>0.9018409213301202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9475010700883841</v>
+        <v>0.9458805815664978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -3031,19 +3031,19 @@
         <v>221733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209154</v>
+        <v>209493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232664</v>
+        <v>234297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8523955299006271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8040411552173476</v>
+        <v>0.805342793839141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8944160586705483</v>
+        <v>0.9006943165019916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>760</v>
@@ -3052,19 +3052,19 @@
         <v>805473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>783470</v>
+        <v>785034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>820634</v>
+        <v>822253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9054900547667478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8807546852000609</v>
+        <v>0.8825125616287072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9225330860040758</v>
+        <v>0.9243531299716694</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>66143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50853</v>
+        <v>51231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85363</v>
+        <v>84715</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05706890950628943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04387669876574717</v>
+        <v>0.04420241803334162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07365133671293807</v>
+        <v>0.07309271080784961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3177,19 +3177,19 @@
         <v>43722</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31800</v>
+        <v>31888</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58694</v>
+        <v>61185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0571743614011048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04158412729071263</v>
+        <v>0.04169938214973602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0767526903560988</v>
+        <v>0.08000929524783823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -3198,19 +3198,19 @@
         <v>109866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88593</v>
+        <v>90355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131053</v>
+        <v>134978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05711082876929308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0460527592832113</v>
+        <v>0.04696885284704566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06812437385727182</v>
+        <v>0.07016486906625469</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1092866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1073646</v>
+        <v>1074294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1108156</v>
+        <v>1107778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9429310904937106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9263486632870614</v>
+        <v>0.9269072891921504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9561233012342525</v>
+        <v>0.9557975819666583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>670</v>
@@ -3248,19 +3248,19 @@
         <v>721000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706028</v>
+        <v>703537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>732922</v>
+        <v>732834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9428256385988952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9232473096439012</v>
+        <v>0.9199907047521617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9584158727092874</v>
+        <v>0.958300617850264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1692</v>
@@ -3269,19 +3269,19 @@
         <v>1813865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1792678</v>
+        <v>1788753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1835138</v>
+        <v>1833376</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9428891712307069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9318756261427282</v>
+        <v>0.9298351309337454</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9539472407167888</v>
+        <v>0.9530311471529546</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>27519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18401</v>
+        <v>17868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39348</v>
+        <v>39121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05389489429330024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0360389913296121</v>
+        <v>0.03499427222126315</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0770635519171342</v>
+        <v>0.07661835985114043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -3394,19 +3394,19 @@
         <v>111582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91341</v>
+        <v>92829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133729</v>
+        <v>133567</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.146770445287204</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1201461610716615</v>
+        <v>0.1221040674782943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.175902074214568</v>
+        <v>0.1756895786945951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -3415,19 +3415,19 @@
         <v>139100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118107</v>
+        <v>116954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164457</v>
+        <v>161110</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1094551148523644</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09293585860904724</v>
+        <v>0.09202860679966178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1294081391470726</v>
+        <v>0.1267741265612854</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>483077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471248</v>
+        <v>471475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>492195</v>
+        <v>492728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9461051057066997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9229364480828657</v>
+        <v>0.9233816401488596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9639610086703878</v>
+        <v>0.9650057277787371</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>598</v>
@@ -3465,19 +3465,19 @@
         <v>648664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>626517</v>
+        <v>626679</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>668905</v>
+        <v>667417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.853229554712796</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8240979257854318</v>
+        <v>0.8243104213054047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8798538389283385</v>
+        <v>0.8778959325217056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1059</v>
@@ -3486,19 +3486,19 @@
         <v>1131743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1106386</v>
+        <v>1109733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1152736</v>
+        <v>1153889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8905448851476356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8705918608529274</v>
+        <v>0.8732258734387148</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9070641413909528</v>
+        <v>0.9079713932003383</v>
       </c>
     </row>
     <row r="18">
@@ -3593,16 +3593,16 @@
         <v>995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12506</v>
+        <v>11108</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01478005968768862</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003727277032608326</v>
+        <v>0.003728682484557138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04685985490849491</v>
+        <v>0.04162232189307619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -3611,19 +3611,19 @@
         <v>215804</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190601</v>
+        <v>191014</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245938</v>
+        <v>243299</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1945321919925978</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1718129383734112</v>
+        <v>0.1721849338450996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2216956158680936</v>
+        <v>0.2193166800722042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>201</v>
@@ -3632,19 +3632,19 @@
         <v>219749</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190966</v>
+        <v>193273</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248454</v>
+        <v>249857</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1596742944071389</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1387601761572237</v>
+        <v>0.1404364632881899</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1805322545619621</v>
+        <v>0.181551510398213</v>
       </c>
     </row>
     <row r="20">
@@ -3661,7 +3661,7 @@
         <v>262937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254376</v>
+        <v>255774</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>265887</v>
@@ -3670,10 +3670,10 @@
         <v>0.9852199403123114</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9531401450915045</v>
+        <v>0.9583776781069224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962727229673917</v>
+        <v>0.9962713175154428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>846</v>
@@ -3682,19 +3682,19 @@
         <v>893547</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>863413</v>
+        <v>866052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>918750</v>
+        <v>918337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8054678080074023</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7783043841319065</v>
+        <v>0.7806833199277958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8281870616265888</v>
+        <v>0.8278150661549004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1108</v>
@@ -3703,19 +3703,19 @@
         <v>1156484</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1127779</v>
+        <v>1126376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1185267</v>
+        <v>1182960</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8403257055928611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8194677454380384</v>
+        <v>0.8184484896017871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8612398238427763</v>
+        <v>0.8595635367118104</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>176304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>149734</v>
+        <v>152245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205875</v>
+        <v>207732</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05152203100429997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04375729053394525</v>
+        <v>0.04449128185566847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06016363552696184</v>
+        <v>0.06070644102599471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>405</v>
@@ -3828,19 +3828,19 @@
         <v>440677</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>396724</v>
+        <v>402154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>480715</v>
+        <v>483888</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1242423864392528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1118504635486268</v>
+        <v>0.1133813708059975</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1355305891968426</v>
+        <v>0.1364250689000818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>565</v>
@@ -3849,19 +3849,19 @@
         <v>616981</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>566297</v>
+        <v>564408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>665480</v>
+        <v>667776</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08853442652497071</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.081261486232963</v>
+        <v>0.080990446899561</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09549382548198937</v>
+        <v>0.0958233240559322</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3245606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3216035</v>
+        <v>3214178</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3272176</v>
+        <v>3269665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9484779689957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9398363644730382</v>
+        <v>0.9392935589740053</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9562427094660547</v>
+        <v>0.9555087181443316</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2883</v>
@@ -3899,19 +3899,19 @@
         <v>3106238</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3066200</v>
+        <v>3063027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3150191</v>
+        <v>3144761</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8757576135607472</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8644694108031575</v>
+        <v>0.8635749310999182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8881495364513733</v>
+        <v>0.8866186291940026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5928</v>
@@ -3920,19 +3920,19 @@
         <v>6351844</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6303345</v>
+        <v>6301049</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6402528</v>
+        <v>6404417</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9114655734750293</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9045061745180106</v>
+        <v>0.9041766759440678</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.918738513767037</v>
+        <v>0.9190095531004391</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>8503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3619</v>
+        <v>3849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16188</v>
+        <v>16429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01981583663720945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008434580029947339</v>
+        <v>0.008970057280725958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03772547856173927</v>
+        <v>0.03828790034054114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4287,19 +4287,19 @@
         <v>17539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10786</v>
+        <v>10068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29030</v>
+        <v>28903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05053719245105022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03107920262308174</v>
+        <v>0.02900860416277026</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08364796145995944</v>
+        <v>0.08328168838817089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -4308,19 +4308,19 @@
         <v>26042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16697</v>
+        <v>15730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38516</v>
+        <v>38181</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03355292305390136</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0215120597251147</v>
+        <v>0.02026645492390742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04962411976356745</v>
+        <v>0.04919330807832619</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>420589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412904</v>
+        <v>412663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425473</v>
+        <v>425243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9801841633627906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9622745214382605</v>
+        <v>0.9617120996594586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9915654199700525</v>
+        <v>0.991029942719274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>329516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318025</v>
+        <v>318152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336269</v>
+        <v>336987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9494628075489497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9163520385400405</v>
+        <v>0.916718311611829</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9689207973769178</v>
+        <v>0.9709913958372296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>705</v>
@@ -4379,19 +4379,19 @@
         <v>750105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>737631</v>
+        <v>737966</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759450</v>
+        <v>760417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9664470769460987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9503758802364313</v>
+        <v>0.9508066919216731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784879402748853</v>
+        <v>0.9797335450760924</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>11320</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5792</v>
+        <v>6226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20482</v>
+        <v>21490</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03000957326776283</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01535315452340927</v>
+        <v>0.01650455296531034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05429525184439719</v>
+        <v>0.0569684537028178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4504,19 +4504,19 @@
         <v>13980</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7489</v>
+        <v>7416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24575</v>
+        <v>23699</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03755321625968017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02011679255048125</v>
+        <v>0.01992033476044534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06601219171411218</v>
+        <v>0.06366014044253286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4525,19 +4525,19 @@
         <v>25300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16358</v>
+        <v>15087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38299</v>
+        <v>37310</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03375646538979802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02182548426580624</v>
+        <v>0.02012913271752927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05109891445295529</v>
+        <v>0.04977970083161602</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>365907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356745</v>
+        <v>355737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371435</v>
+        <v>371001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9699904267322371</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9457047481556027</v>
+        <v>0.9430315462971822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846468454765908</v>
+        <v>0.9834954470346896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -4575,19 +4575,19 @@
         <v>358293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347698</v>
+        <v>348574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364784</v>
+        <v>364857</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9624467837403198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9339878082858876</v>
+        <v>0.9363398595574671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9798832074495187</v>
+        <v>0.9800796652395546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>684</v>
@@ -4596,19 +4596,19 @@
         <v>724200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>711201</v>
+        <v>712190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733142</v>
+        <v>734413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.966243534610202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9489010855470446</v>
+        <v>0.9502202991683839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781745157341936</v>
+        <v>0.9798708672824705</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>17089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10479</v>
+        <v>9841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27648</v>
+        <v>26565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03274251896269768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02007744998489963</v>
+        <v>0.01885635527758243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05297384058233128</v>
+        <v>0.05089988862208846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4721,19 +4721,19 @@
         <v>23369</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15296</v>
+        <v>14877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35270</v>
+        <v>34164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1406703534218845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09207854025740635</v>
+        <v>0.08955189822155044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.212312398095778</v>
+        <v>0.2056561272640365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -4742,19 +4742,19 @@
         <v>40457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28919</v>
+        <v>28845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55895</v>
+        <v>56282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0588011286992564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04203088189215685</v>
+        <v>0.04192330974035866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08123862154453887</v>
+        <v>0.08180146889337045</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>504825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>494266</v>
+        <v>495349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>511435</v>
+        <v>512073</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9672574810373024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9470261594176684</v>
+        <v>0.9491001113779115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9799225500151002</v>
+        <v>0.9811436447224176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -4792,19 +4792,19 @@
         <v>142754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130853</v>
+        <v>131959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150827</v>
+        <v>151246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8593296465781155</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7876876019042219</v>
+        <v>0.7943438727359635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9079214597425936</v>
+        <v>0.9104481017784496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>619</v>
@@ -4813,19 +4813,19 @@
         <v>647579</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632141</v>
+        <v>631754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659117</v>
+        <v>659191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9411988713007436</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9187613784554615</v>
+        <v>0.9181985311066295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9579691181078438</v>
+        <v>0.9580766902596413</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>55421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41601</v>
+        <v>42028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72497</v>
+        <v>73409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04820731056095094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03618593154418435</v>
+        <v>0.03655747502730925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06306088462351014</v>
+        <v>0.06385428510418385</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -4938,19 +4938,19 @@
         <v>44441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31862</v>
+        <v>32828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58573</v>
+        <v>60101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05381100926179461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03857986355011794</v>
+        <v>0.03974974814020346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07092192316611801</v>
+        <v>0.07277259615090806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -4959,19 +4959,19 @@
         <v>99862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81029</v>
+        <v>80929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122213</v>
+        <v>121715</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05054997122424333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04101661345063742</v>
+        <v>0.0409660689625068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06186374190156358</v>
+        <v>0.06161166571125166</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1094217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1077141</v>
+        <v>1076229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1108037</v>
+        <v>1107610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.951792689439049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9369391153764899</v>
+        <v>0.9361457148958162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9638140684558157</v>
+        <v>0.963442524972691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>758</v>
@@ -5009,19 +5009,19 @@
         <v>781435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767303</v>
+        <v>765775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>794014</v>
+        <v>793048</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9461889907382054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.929078076833882</v>
+        <v>0.927227403849092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9614201364498821</v>
+        <v>0.9602502518597968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1808</v>
@@ -5030,19 +5030,19 @@
         <v>1875652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1853301</v>
+        <v>1853799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1894485</v>
+        <v>1894585</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9494500287757567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9381362580984364</v>
+        <v>0.9383883342887483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9589833865493625</v>
+        <v>0.9590339310374931</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>29612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20420</v>
+        <v>20650</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40395</v>
+        <v>41003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04770668460606441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03289732854762834</v>
+        <v>0.03326894985503888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06507931005126459</v>
+        <v>0.06605846050357964</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -5155,19 +5155,19 @@
         <v>91029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73962</v>
+        <v>72877</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109635</v>
+        <v>108771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1233040927514485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1001866777775949</v>
+        <v>0.09871653436138743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1485073607944342</v>
+        <v>0.1473368115972041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -5176,19 +5176,19 @@
         <v>120640</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101554</v>
+        <v>100336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143096</v>
+        <v>142568</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08877467264857403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07473000485761473</v>
+        <v>0.07383326256872086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1052991741496914</v>
+        <v>0.1049105112002476</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>591094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>580311</v>
+        <v>579703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>600286</v>
+        <v>600056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9522933153939356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9349206899487355</v>
+        <v>0.9339415394964204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9671026714523716</v>
+        <v>0.9667310501449611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>615</v>
@@ -5226,19 +5226,19 @@
         <v>647215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>628609</v>
+        <v>629473</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>664282</v>
+        <v>665367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8766959072485515</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8514926392055658</v>
+        <v>0.8526631884027954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8998133222224053</v>
+        <v>0.9012834656386123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1180</v>
@@ -5247,19 +5247,19 @@
         <v>1238310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1215854</v>
+        <v>1216382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1257396</v>
+        <v>1258614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.911225327351426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8947008258503086</v>
+        <v>0.8950894887997524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9252699951423852</v>
+        <v>0.9261667374312791</v>
       </c>
     </row>
     <row r="18">
@@ -5364,19 +5364,19 @@
         <v>139635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117354</v>
+        <v>118415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165940</v>
+        <v>166565</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1290501248258724</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1084574151460745</v>
+        <v>0.1094383794505659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1533609301881664</v>
+        <v>0.1539377930725938</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -5385,19 +5385,19 @@
         <v>139635</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114683</v>
+        <v>117380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162738</v>
+        <v>163550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1019854673103062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08376065339980558</v>
+        <v>0.08573064483414461</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1188588732949972</v>
+        <v>0.1194519294088525</v>
       </c>
     </row>
     <row r="20">
@@ -5427,19 +5427,19 @@
         <v>942390</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>916085</v>
+        <v>915460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>964671</v>
+        <v>963610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8709498751741276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8466390698118336</v>
+        <v>0.8460622069274063</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8915425848539257</v>
+        <v>0.8905616205494342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1144</v>
@@ -5448,19 +5448,19 @@
         <v>1229535</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1206432</v>
+        <v>1205620</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1254487</v>
+        <v>1251790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8980145326896939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8811411267050028</v>
+        <v>0.8805480705911475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9162393466001945</v>
+        <v>0.9142693551658554</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>121945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102033</v>
+        <v>101453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144450</v>
+        <v>146543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03601736835663961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03013616593302933</v>
+        <v>0.02996501685364879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04266435097091469</v>
+        <v>0.0432825500803157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>290</v>
@@ -5573,19 +5573,19 @@
         <v>329993</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>297340</v>
+        <v>292549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>368974</v>
+        <v>367295</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09344018331621279</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08419428446210456</v>
+        <v>0.08283774394872287</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1044779968334957</v>
+        <v>0.1040026008497604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>410</v>
@@ -5594,19 +5594,19 @@
         <v>451938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409570</v>
+        <v>407094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>494462</v>
+        <v>491834</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06533424737695226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05920941980593016</v>
+        <v>0.05885135367069538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07148175910892382</v>
+        <v>0.07110177509743382</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3263777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3241272</v>
+        <v>3239179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3283689</v>
+        <v>3284269</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9639826316433604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9573356490290853</v>
+        <v>0.9567174499196843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9698638340669707</v>
+        <v>0.9700349831463513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3036</v>
@@ -5644,19 +5644,19 @@
         <v>3201603</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3162622</v>
+        <v>3164301</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3234256</v>
+        <v>3239047</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9065598166837872</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8955220031665042</v>
+        <v>0.8959973991502396</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9158057155378954</v>
+        <v>0.9171622560512771</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6140</v>
@@ -5665,19 +5665,19 @@
         <v>6465380</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6422856</v>
+        <v>6425484</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6507748</v>
+        <v>6510224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9346657526230477</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9285182408910762</v>
+        <v>0.9288982249025662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9407905801940698</v>
+        <v>0.9411486463293046</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>21984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14560</v>
+        <v>15254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31893</v>
+        <v>32216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.039994147108724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02648824428979436</v>
+        <v>0.02775115356513364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05802246124573269</v>
+        <v>0.0586091185216087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -6032,19 +6032,19 @@
         <v>38291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29126</v>
+        <v>29480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49292</v>
+        <v>48554</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07862298795702191</v>
+        <v>0.0786229879570219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05980355102874884</v>
+        <v>0.06053125464373264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1012122451644058</v>
+        <v>0.0996953539874162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -6053,19 +6053,19 @@
         <v>60275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48670</v>
+        <v>46578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74418</v>
+        <v>73553</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05814139701401817</v>
+        <v>0.05814139701401816</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04694750091040385</v>
+        <v>0.04492913781236706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07178379750527097</v>
+        <v>0.07094938368174603</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>527684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>517775</v>
+        <v>517452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>535108</v>
+        <v>534414</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9600058528912758</v>
+        <v>0.960005852891276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9419775387542673</v>
+        <v>0.9413908814783913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9735117557102057</v>
+        <v>0.9722488464348668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -6103,19 +6103,19 @@
         <v>448730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>437729</v>
+        <v>438467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457895</v>
+        <v>457541</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9213770120429781</v>
+        <v>0.9213770120429779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8987877548355943</v>
+        <v>0.9003046460125842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9401964489712511</v>
+        <v>0.9394687453562675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1148</v>
@@ -6124,19 +6124,19 @@
         <v>976415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>962272</v>
+        <v>963137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>988020</v>
+        <v>990112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.941858602985982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9282162024947289</v>
+        <v>0.9290506163182547</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9530524990895961</v>
+        <v>0.9550708621876332</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>20150</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13487</v>
+        <v>13296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29452</v>
+        <v>30519</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04169927053723931</v>
+        <v>0.0416992705372393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02791123908241187</v>
+        <v>0.02751671650761736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06094967245548891</v>
+        <v>0.06315816600319317</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6249,19 +6249,19 @@
         <v>42855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33571</v>
+        <v>33225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52663</v>
+        <v>52947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1019252114888748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07984464429904282</v>
+        <v>0.07902044247259203</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1252523697415348</v>
+        <v>0.1259274072571216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -6270,19 +6270,19 @@
         <v>63005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51337</v>
+        <v>51128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77518</v>
+        <v>75903</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06972112414280802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05680942591208027</v>
+        <v>0.05657857191601479</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0857806723833746</v>
+        <v>0.08399423847436899</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>463062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453760</v>
+        <v>452693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469725</v>
+        <v>469916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9583007294627607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.939050327544511</v>
+        <v>0.9368418339968073</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.972088760917588</v>
+        <v>0.9724832834923824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>518</v>
@@ -6320,19 +6320,19 @@
         <v>377604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367796</v>
+        <v>367512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386888</v>
+        <v>387234</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.898074788511125</v>
+        <v>0.8980747885111252</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8747476302584651</v>
+        <v>0.8740725927428785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9201553557009571</v>
+        <v>0.9209795575274079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>973</v>
@@ -6341,19 +6341,19 @@
         <v>840666</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>826153</v>
+        <v>827768</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>852334</v>
+        <v>852543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9302788758571919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9142193276166255</v>
+        <v>0.9160057615256311</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.94319057408792</v>
+        <v>0.9434214280839853</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>27053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18788</v>
+        <v>19178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37242</v>
+        <v>37745</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05760255877470406</v>
+        <v>0.05760255877470408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04000405185348835</v>
+        <v>0.04083417154916893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07929893458489169</v>
+        <v>0.08036945536486527</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -6466,19 +6466,19 @@
         <v>29699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21986</v>
+        <v>22579</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40207</v>
+        <v>40164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1583996144389009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1172602278997013</v>
+        <v>0.1204251825364731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2144387535190937</v>
+        <v>0.2142115769766654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -6487,19 +6487,19 @@
         <v>56752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45471</v>
+        <v>44334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71910</v>
+        <v>71323</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08636217156448381</v>
+        <v>0.08636217156448382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.069195111279966</v>
+        <v>0.06746411335403295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1094275310230516</v>
+        <v>0.1085355024172427</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>442592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>432403</v>
+        <v>431900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450857</v>
+        <v>450467</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9423974412252959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9207010654151083</v>
+        <v>0.9196305446351346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9599959481465116</v>
+        <v>0.9591658284508311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -6537,19 +6537,19 @@
         <v>157798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147290</v>
+        <v>147333</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165511</v>
+        <v>164918</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8416003855610991</v>
+        <v>0.8416003855610992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7855612464809064</v>
+        <v>0.7857884230233346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8827397721002987</v>
+        <v>0.8795748174635268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>692</v>
@@ -6558,19 +6558,19 @@
         <v>600391</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>585233</v>
+        <v>585820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611672</v>
+        <v>612809</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9136378284355161</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8905724689769483</v>
+        <v>0.8914644975827571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9308048887200338</v>
+        <v>0.9325358866459669</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>75217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61408</v>
+        <v>61102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91873</v>
+        <v>91297</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06657421003470949</v>
+        <v>0.06657421003470948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05435142988036906</v>
+        <v>0.05408059150757437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08131579491053062</v>
+        <v>0.08080591445198672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -6683,19 +6683,19 @@
         <v>93535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80661</v>
+        <v>79643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109545</v>
+        <v>108654</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1093244557940733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09427733767206599</v>
+        <v>0.09308765907755345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1280365801329545</v>
+        <v>0.1269949048845928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>269</v>
@@ -6704,19 +6704,19 @@
         <v>168753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149791</v>
+        <v>148462</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189919</v>
+        <v>193500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08499668161592643</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07544626195719309</v>
+        <v>0.07477689695909945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09565752351562923</v>
+        <v>0.0974611204337856</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1054612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1037956</v>
+        <v>1038532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1068421</v>
+        <v>1068727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9334257899652905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9186842050894696</v>
+        <v>0.9191940855480133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9456485701196311</v>
+        <v>0.9459194084924256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1052</v>
@@ -6754,19 +6754,19 @@
         <v>762040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>746030</v>
+        <v>746921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>774914</v>
+        <v>775932</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8906755442059269</v>
+        <v>0.8906755442059267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8719634198670454</v>
+        <v>0.8730050951154074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9057226623279341</v>
+        <v>0.9069123409224465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2069</v>
@@ -6775,19 +6775,19 @@
         <v>1816651</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795485</v>
+        <v>1791904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1835613</v>
+        <v>1836942</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9150033183840737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9043424764843709</v>
+        <v>0.9025388795662145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9245537380428069</v>
+        <v>0.9252231030409007</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>34560</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25710</v>
+        <v>24337</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46542</v>
+        <v>47433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06122048101007213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04554362372902911</v>
+        <v>0.04311053878203598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08244468663192014</v>
+        <v>0.08402321350377781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -6900,19 +6900,19 @@
         <v>155205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138657</v>
+        <v>139329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172154</v>
+        <v>172723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1876142767070868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1676106502034929</v>
+        <v>0.1684238515138987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2081021434233396</v>
+        <v>0.2087907217004726</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>338</v>
@@ -6921,19 +6921,19 @@
         <v>189765</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>170468</v>
+        <v>170617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210938</v>
+        <v>210763</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.136347416251538</v>
+        <v>0.1363474162515379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1224825764298317</v>
+        <v>0.1225890746964277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1515604581126947</v>
+        <v>0.1514347089342194</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>529962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>517980</v>
+        <v>517089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>538812</v>
+        <v>540185</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9387795189899278</v>
+        <v>0.9387795189899276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9175553133680798</v>
+        <v>0.9159767864962221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9544563762709707</v>
+        <v>0.9568894612179641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>991</v>
@@ -6971,19 +6971,19 @@
         <v>672050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>655101</v>
+        <v>654532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>688598</v>
+        <v>687926</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8123857232929134</v>
+        <v>0.8123857232929133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7918978565766605</v>
+        <v>0.7912092782995275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8323893497965071</v>
+        <v>0.8315761484861015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1490</v>
@@ -6992,19 +6992,19 @@
         <v>1202012</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1180839</v>
+        <v>1181014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1221309</v>
+        <v>1221160</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8636525837484621</v>
+        <v>0.863652583748462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8484395418873053</v>
+        <v>0.8485652910657805</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8775174235701682</v>
+        <v>0.8774109253035723</v>
       </c>
     </row>
     <row r="18">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3869</v>
+        <v>3811</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004358199091829554</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01630966950816142</v>
+        <v>0.01606636583847897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -7117,19 +7117,19 @@
         <v>162137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143705</v>
+        <v>144093</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>181593</v>
+        <v>182177</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1926266588547375</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1707283087305381</v>
+        <v>0.1711896030346044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2157405806970988</v>
+        <v>0.2164342174201299</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>298</v>
@@ -7138,19 +7138,19 @@
         <v>163171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143792</v>
+        <v>144074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183569</v>
+        <v>184790</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.151232085900207</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1332708519071849</v>
+        <v>0.1335321292594533</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1701372883676864</v>
+        <v>0.1712691893848507</v>
       </c>
     </row>
     <row r="20">
@@ -7167,16 +7167,16 @@
         <v>236194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233359</v>
+        <v>233417</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9956418009081704</v>
+        <v>0.9956418009081703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9836903304918385</v>
+        <v>0.9839336341615208</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7188,19 +7188,19 @@
         <v>679581</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>660125</v>
+        <v>659541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>698013</v>
+        <v>697625</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8073733411452624</v>
+        <v>0.8073733411452626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7842594193029011</v>
+        <v>0.78356578257987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8292716912694608</v>
+        <v>0.8288103969653957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>970</v>
@@ -7209,19 +7209,19 @@
         <v>915775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>895377</v>
+        <v>894156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>935154</v>
+        <v>934872</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8487679140997929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8298627116323137</v>
+        <v>0.8287308106151494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8667291480928152</v>
+        <v>0.8664678707405468</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>179998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157640</v>
+        <v>157109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205166</v>
+        <v>206763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0524146968755087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0459043583002065</v>
+        <v>0.04574954075667607</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0597437937596579</v>
+        <v>0.0602087589713288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>936</v>
@@ -7334,19 +7334,19 @@
         <v>521723</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>486827</v>
+        <v>488412</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>553287</v>
+        <v>553158</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1441413782361316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1345002634283257</v>
+        <v>0.134938223585837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1528618419681326</v>
+        <v>0.15282595188259</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1171</v>
@@ -7355,19 +7355,19 @@
         <v>701721</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>660546</v>
+        <v>661361</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>747308</v>
+        <v>741398</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09948366712733464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09364628405461393</v>
+        <v>0.09376181994112671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1059466381832728</v>
+        <v>0.1051087375964994</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>3254106</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3228938</v>
+        <v>3227341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3276464</v>
+        <v>3276995</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9475853031244913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9402562062403421</v>
+        <v>0.9397912410286711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9540956416997934</v>
+        <v>0.954250459243324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4285</v>
@@ -7405,19 +7405,19 @@
         <v>3097803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3066239</v>
+        <v>3066368</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3132699</v>
+        <v>3131114</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8558586217638683</v>
+        <v>0.8558586217638684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8471381580318673</v>
+        <v>0.8471740481174099</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8654997365716743</v>
+        <v>0.8650617764141629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7342</v>
@@ -7426,19 +7426,19 @@
         <v>6351909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6306322</v>
+        <v>6312232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6393084</v>
+        <v>6392269</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9005163328726652</v>
+        <v>0.9005163328726653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8940533618167272</v>
+        <v>0.8948912624035008</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9063537159453859</v>
+        <v>0.9062381800588734</v>
       </c>
     </row>
     <row r="24">
